--- a/public/inventory.xlsx
+++ b/public/inventory.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
   <si>
     <t>Name</t>
   </si>
@@ -63,6 +63,105 @@
   </si>
   <si>
     <t>AddtionalData</t>
+  </si>
+  <si>
+    <t>Evans, Edie</t>
+  </si>
+  <si>
+    <t>33500995071</t>
+  </si>
+  <si>
+    <t>Bad</t>
+  </si>
+  <si>
+    <t>{"Seller":83,"Title":"I Love You, Mommy (Little Golden Book)","Illustrator":null,"BookSize":null,"JacketCondition":null,"Binding":"Hardcover","BookType":null,"Publisher":"Golden Books","PublishPlace":null,"PublishDate":"Dec-99","Edition":null,"Inscription":null,"Description":null,"Image":null,"Category1":"Children's General","Category2":null,"Category3":null,"Category4":null,"Category5":null,"Keyword1":null,"Keyword2":null,"Keyword3":null,"Keyword4":null,"Keyword5":null,"Keyword6":null,"Keyword7":null,"Keyword8":null,"Keyword9":null,"Weight":null,"FeaturedItem":null}</t>
+  </si>
+  <si>
+    <t>asdf123</t>
+  </si>
+  <si>
+    <t>asd123</t>
+  </si>
+  <si>
+    <t>{"EAN":"asd123","TYPE":"music","Bindings":"game","Author":"asd123","Publisher":"sdf123","Language":"english"}</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>Used- Not Good</t>
+  </si>
+  <si>
+    <t>cat20200530_063139.png</t>
+  </si>
+  <si>
+    <t>tst</t>
+  </si>
+  <si>
+    <t>tasd</t>
+  </si>
+  <si>
+    <t>sadf</t>
+  </si>
+  <si>
+    <t>cat20200530_061842.png</t>
+  </si>
+  <si>
+    <t>teasd</t>
+  </si>
+  <si>
+    <t>Used- Very Good</t>
+  </si>
+  <si>
+    <t>cat20200530_061255.png</t>
+  </si>
+  <si>
+    <t>asdasd</t>
+  </si>
+  <si>
+    <t>Used- Good</t>
+  </si>
+  <si>
+    <t>dfssfd</t>
+  </si>
+  <si>
+    <t>cat20200530_061208.png</t>
+  </si>
+  <si>
+    <t>tesat</t>
+  </si>
+  <si>
+    <t>asasd</t>
+  </si>
+  <si>
+    <t>cat20200530_061044.png</t>
+  </si>
+  <si>
+    <t>teast</t>
+  </si>
+  <si>
+    <t>cat20200529_123305.png</t>
+  </si>
+  <si>
+    <t>test123</t>
+  </si>
+  <si>
+    <t>treasd 123</t>
+  </si>
+  <si>
+    <t>sasd123</t>
+  </si>
+  <si>
+    <t>asd 123</t>
+  </si>
+  <si>
+    <t>s 123</t>
+  </si>
+  <si>
+    <t>cat20200529_121432.png</t>
   </si>
   <si>
     <t xml:space="preserve">my title 1
@@ -88,24 +187,13 @@
     <t>{"Author":"demo author1\r\n","Publisher":"publisher1\r\n","Size":"56\r\n","JackCondition":"Not good\r\n","Binding":"Test Binding\r\n","Type":"Book\r\n","PublishPlace":"India\r\n","PublishYear":"2020\r\n","Edition":"1st Edition\r\n","Inscription":"test signi\r\n","Keywords":"mykeybook\r\n","Category":"books\r\n","Illustrator":"illustrator copy\r\n","CheckImage":"my image\r\n","Status":"true\r\n","Transaction":"by courier\r\n","1.2gm":"5.6"}</t>
   </si>
   <si>
-    <t xml:space="preserve">American Country Churches
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beautiful publication.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21503
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">345
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Near Fine in Near Fine dust jacket
-</t>
+    <t>American Country Churches</t>
+  </si>
+  <si>
+    <t>beautiful publication.</t>
+  </si>
+  <si>
+    <t>cat20200529_121634.png</t>
   </si>
   <si>
     <t>{"Author":"Morgan, William; Illustrated by Radek Kurzaj\r\n","Category":"Architecture\r\n","Publisher":"Harry N. Abrams\r\n","DatePublished":"2004\r\n","Edition":"Second Printing\r\n","Binding":"Hardcover\r\n","Keywords":"Religion &amp; Spirituality ;\r\n","Weight":"3.3\r\n","4":"4\r\n","1":"1\r\n","BO":"BO\r\n","S":"S"}</t>
@@ -132,33 +220,6 @@
   </si>
   <si>
     <t>{"Author":"Exner, Max V.\r\n","Category":"Music\r\n","Publisher":"Cooperative Recreation Service\r\n","DatePublished":"1957\r\n","Binding":"Softcover\r\n","Keywords":"4-H Club ;\r\n","Weight":"0.3\r\n","4":"4\r\n","1":"1\r\n","BO":"BO\r\n","S":"S"}</t>
-  </si>
-  <si>
-    <t>Evans, Edie</t>
-  </si>
-  <si>
-    <t>33500995071</t>
-  </si>
-  <si>
-    <t>Bad</t>
-  </si>
-  <si>
-    <t>{"Seller":83,"Title":"I Love You, Mommy (Little Golden Book)","Illustrator":null,"BookSize":null,"JacketCondition":null,"Binding":"Hardcover","BookType":null,"Publisher":"Golden Books","PublishPlace":null,"PublishDate":"Dec-99","Edition":null,"Inscription":null,"Description":null,"Image":null,"Category1":"Children's General","Category2":null,"Category3":null,"Category4":null,"Category5":null,"Keyword1":null,"Keyword2":null,"Keyword3":null,"Keyword4":null,"Keyword5":null,"Keyword6":null,"Keyword7":null,"Keyword8":null,"Keyword9":null,"Weight":null,"FeaturedItem":null}</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>a213</t>
-  </si>
-  <si>
-    <t>Used- Very Good</t>
-  </si>
-  <si>
-    <t>screenshot_120200429_111223.png</t>
   </si>
 </sst>
 </file>
@@ -497,7 +558,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -559,20 +620,16 @@
       <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2">
+        <v>80.0</v>
+      </c>
+      <c r="F2" t="s">
         <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2">
-        <v>26.0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -585,7 +642,7 @@
       </c>
       <c r="J2"/>
       <c r="K2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L2"/>
       <c r="M2"/>
@@ -596,28 +653,24 @@
         <v>24</v>
       </c>
       <c r="P2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B3"/>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>11.0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
+        <v>324.0</v>
+      </c>
+      <c r="F3"/>
       <c r="G3">
         <v>0</v>
       </c>
@@ -629,7 +682,7 @@
       </c>
       <c r="J3"/>
       <c r="K3">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="L3"/>
       <c r="M3"/>
@@ -640,140 +693,482 @@
         <v>24</v>
       </c>
       <c r="P3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>5.0</v>
+        <v>123.0</v>
       </c>
       <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4">
         <v>32</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4"/>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4"/>
-      <c r="M4"/>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
         <v>24</v>
       </c>
-      <c r="P4" t="s">
-        <v>33</v>
-      </c>
+      <c r="P4"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5"/>
-      <c r="C5"/>
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>80.0</v>
+        <v>234.0</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5"/>
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>29</v>
+      </c>
       <c r="K5">
-        <v>50</v>
-      </c>
-      <c r="L5"/>
-      <c r="M5"/>
+        <v>234</v>
+      </c>
+      <c r="L5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
         <v>24</v>
       </c>
-      <c r="P5" t="s">
-        <v>37</v>
-      </c>
+      <c r="P5"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>234.0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6">
+        <v>323</v>
+      </c>
+      <c r="L6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>24</v>
+      </c>
+      <c r="P6"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7">
+        <v>334.0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7">
+        <v>23</v>
+      </c>
+      <c r="L7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>24</v>
+      </c>
+      <c r="P7"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
         <v>38</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8">
+        <v>324.0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
         <v>39</v>
       </c>
-      <c r="C6" t="s">
+      <c r="K8">
+        <v>234</v>
+      </c>
+      <c r="L8" t="s">
         <v>40</v>
       </c>
-      <c r="D6">
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>24</v>
+      </c>
+      <c r="P8"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>999.99</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9">
+        <v>34</v>
+      </c>
+      <c r="L9" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>24</v>
+      </c>
+      <c r="P9"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10">
+        <v>16.0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10">
+        <v>21</v>
+      </c>
+      <c r="L10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>24</v>
+      </c>
+      <c r="P10"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11">
+        <v>26.0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11"/>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>24</v>
+      </c>
+      <c r="P11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12">
+        <v>21503</v>
+      </c>
+      <c r="D12">
+        <v>345</v>
+      </c>
+      <c r="E12">
+        <v>11.0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12">
         <v>123</v>
       </c>
-      <c r="E6">
-        <v>123.0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
+      <c r="L12" t="s">
+        <v>57</v>
+      </c>
+      <c r="M12">
         <v>2</v>
       </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M6">
-        <v>2</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>24</v>
-      </c>
-      <c r="P6"/>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>24</v>
+      </c>
+      <c r="P12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13">
+        <v>5.0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13"/>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>24</v>
+      </c>
+      <c r="P13" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
